--- a/tests/excel_template.xlsx
+++ b/tests/excel_template.xlsx
@@ -50,7 +50,7 @@
     <t>Poursuivez vos efforts !</t>
   </si>
   <si>
-    <t>Test</t>
+    <t>Ceci est une remarque</t>
   </si>
   <si>
     <t>Soin</t>
